--- a/planilhas-comuns/apuracao-de-resultado.xlsx
+++ b/planilhas-comuns/apuracao-de-resultado.xlsx
@@ -1,19 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Portfólio\estudos-planilhas\planilhas-comuns\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC69149E-2E8C-429E-93FF-885A24F41775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ORIGENS E APLICAÇÕES + ARE" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="PATRIMÔNIO" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PERGUNTAS" sheetId="3" r:id="rId6"/>
+    <sheet name="ORIGENS E APLICAÇÕES + ARE" sheetId="1" r:id="rId1"/>
+    <sheet name="PATRIMÔNIO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>ORIGEM E APLICAÇÃO</t>
   </si>
@@ -142,50 +161,41 @@
   </si>
   <si>
     <t>Energia Elétrica</t>
-  </si>
-  <si>
-    <t>07 - CONTROLE DE DUPLICATAS A RECEBER</t>
-  </si>
-  <si>
-    <t>MÊS</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
-    <t>MAIO</t>
-  </si>
-  <si>
-    <t>JUNHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -196,7 +206,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -229,28 +239,44 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
-    <border/>
+  <borders count="43">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -265,16 +291,21 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -284,6 +315,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -298,17 +330,20 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -323,6 +358,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -331,9 +367,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -348,14 +386,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -364,9 +406,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -375,9 +419,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -392,8 +438,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -403,6 +451,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -417,6 +466,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -431,6 +481,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -445,8 +496,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -456,6 +509,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -470,19 +524,23 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -492,27 +550,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -522,27 +587,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -552,27 +624,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -582,6 +661,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -596,6 +676,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -604,9 +685,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -621,6 +704,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -632,17 +716,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -654,27 +742,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -689,301 +789,226 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="35" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="39" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="42" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4810125" cy="4867275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1173,297 +1198,302 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.13"/>
-    <col customWidth="1" min="2" max="2" width="2.75"/>
-    <col customWidth="1" min="3" max="3" width="18.75"/>
-    <col customWidth="1" min="4" max="4" width="11.13"/>
-    <col customWidth="1" min="5" max="5" width="2.75"/>
-    <col customWidth="1" min="6" max="6" width="18.75"/>
-    <col customWidth="1" min="7" max="7" width="10.13"/>
-    <col customWidth="1" min="8" max="8" width="14.13"/>
-    <col customWidth="1" min="9" max="9" width="4.88"/>
-    <col customWidth="1" min="10" max="10" width="25.5"/>
-    <col customWidth="1" min="12" max="12" width="11.5"/>
-    <col customWidth="1" min="13" max="13" width="14.75"/>
-    <col customWidth="1" min="15" max="15" width="14.25"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="16">
-        <v>20000.0</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="H3" s="13">
+        <v>20000</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="22">
-        <v>10000.0</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="H4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <f>H4 * 20%</f>
         <v>2000</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="24" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="22">
-        <v>3000.0</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
+      <c r="H6" s="19">
+        <v>3000</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="31">
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="32"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="33" t="s">
+      <c r="H7" s="28">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E8" s="29"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="36" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="30">
         <f>H4</f>
         <v>10000</v>
       </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="41" t="s">
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44">
-        <v>6000.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="32">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48">
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="33">
         <f>D10-D11</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1473,210 +1503,213 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.25"/>
-    <col customWidth="1" min="3" max="3" width="18.5"/>
-    <col customWidth="1" min="4" max="4" width="18.38"/>
-    <col customWidth="1" min="5" max="5" width="19.38"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="49" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="51">
-        <v>20000.0</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="36">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="52" t="s">
+      <c r="E4" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="53">
-        <v>10000.0</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="38">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="22">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="21" t="s">
+      <c r="E5" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="22">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="54"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="E6" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="15" t="s">
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="22">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="21" t="s">
+      <c r="E9" s="19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="22">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="61"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="62" t="s">
+      <c r="E10" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="48">
         <f>SUM(C4:C11)</f>
         <v>30000</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="45">
         <f>SUM(E4,E5,E9,E10, E6)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="68" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="60"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="50" t="s">
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53">
-        <v>2000.0</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="38">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="22">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="52" t="s">
+      <c r="E15" s="19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="53">
-        <v>3000.0</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="57"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="52" t="s">
+      <c r="C16" s="38">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="53">
-        <v>1000.0</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="57"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="61"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="70" t="s">
+      <c r="C17" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="53">
         <f>SUM(C15:C18)</f>
         <v>6000</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="55">
         <f>SUM(E15:E18)</f>
         <v>10000</v>
       </c>
@@ -1686,72 +1719,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B13:E13"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="36.25"/>
-    <col customWidth="1" min="7" max="7" width="36.0"/>
-  </cols>
-  <sheetData>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="75">
-        <v>5000.0</v>
-      </c>
-      <c r="C29" s="75">
-        <v>2500.0</v>
-      </c>
-      <c r="D29" s="75">
-        <v>2500.0</v>
-      </c>
-      <c r="E29" s="76">
-        <f>SUM(B29:D29)</f>
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A27:E27"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>